--- a/bifurcation.xlsx
+++ b/bifurcation.xlsx
@@ -1,23 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>B (2.13)</t>
+  </si>
+  <si>
+    <t>B(2.8)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,15 +75,1103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2.8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0948244897959185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3792979591836732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8534204081632657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5171918367346944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3706122448979592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4136816326530628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.068767346938776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.680783673469389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.482448979591837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.473763265306125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.654726530612248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.025338775510203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.585600000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.335510204081629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.275069387755103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.404277551020414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.723134693877554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.231640816326532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.929795918367347</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.817600000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.895053061224495</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.162155102040806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.61890612244899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.265306122448976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.101355102040813</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.127053061224501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.342400000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84.747395918367346</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90.342040816326517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2.13</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>274.1781939618823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.590875021082823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.833314068327049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.083024877719687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.099477146230392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.875267292591968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.037289256198346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.011980709225838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.525334216208673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.433032551863718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.653198094810634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.136571925188811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.852077225471831</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.779322314049587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.904477052528996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.217893136490133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.712673646220765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.383782533644009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.2274730908549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.240911199190421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.421921028466485</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59.768809727784287</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.280244261569081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.955163389460466</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.792713779726768</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.792202979837342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78.953064346018664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83.274830578512393</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87.757113531125043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.399588650887324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="57727616"/>
+        <c:axId val="57726080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57727616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57726080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57726080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57727616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2.8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0948244897959185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3792979591836732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8534204081632657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5171918367346944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3706122448979592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4136816326530628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.068767346938776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.680783673469389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.482448979591837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.473763265306125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.654726530612248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.025338775510203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.585600000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.335510204081629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.275069387755103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.404277551020414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.723134693877554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.231640816326532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.929795918367347</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.817600000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.895053061224495</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.162155102040806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.61890612244899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.265306122448976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.101355102040813</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.127053061224501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.342400000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84.747395918367346</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90.342040816326517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2.13</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>52.435638792376452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.518175004216564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5666628136654106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2166049755439365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2198954292460789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7750534585183937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6074578512396696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6023961418451678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7050668432417346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8866065103727445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1306396189621264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4273143850377625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7704154450943665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1558644628099177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5808954105058</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0435786272980261</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5425347292441529</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0767565067288007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6454946181709795</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2481822398380835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8843842056932978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5537619455568592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.256048852313816</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.991032677892095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.758542755945353</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.558440595967468</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.390612869203732</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.25496611570248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.151422706225008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.079917730177467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52073216"/>
+        <c:axId val="52074752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52073216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52074752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52074752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52073216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,36 +1460,1292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(A5*(22/7)/$J$2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f>1+$K$2^2+B5*($L$2+$M$2)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="e">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B5))+(B5*$L$2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>(A6*(22/7)/$J$2)^2</f>
+        <v>9.8775510204081627</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1+$K$2^2+B6*($L$2+$M$2)</f>
+        <v>5.0948244897959185</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B6))+(B6*$L$2))</f>
+        <v>274.1781939618823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(A7*(22/7)/$J$2)^2</f>
+        <v>39.510204081632651</v>
+      </c>
+      <c r="C7" s="1">
+        <f>1+$K$2^2+B7*($L$2+$M$2)</f>
+        <v>5.3792979591836732</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B7))+(B7*$L$2))</f>
+        <v>84.590875021082823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f>(A8*(22/7)/$J$2)^2</f>
+        <v>88.897959183673478</v>
+      </c>
+      <c r="C8" s="1">
+        <f>1+$K$2^2+B8*($L$2+$M$2)</f>
+        <v>5.8534204081632657</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B8))+(B8*$L$2))</f>
+        <v>49.833314068327049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f>(A9*(22/7)/$J$2)^2</f>
+        <v>158.0408163265306</v>
+      </c>
+      <c r="C9" s="1">
+        <f>1+$K$2^2+B9*($L$2+$M$2)</f>
+        <v>6.5171918367346944</v>
+      </c>
+      <c r="D9" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B9))+(B9*$L$2))</f>
+        <v>38.083024877719687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(A10*(22/7)/$J$2)^2</f>
+        <v>246.93877551020407</v>
+      </c>
+      <c r="C10" s="1">
+        <f>1+$K$2^2+B10*($L$2+$M$2)</f>
+        <v>7.3706122448979592</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B10))+(B10*$L$2))</f>
+        <v>33.099477146230392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(A11*(22/7)/$J$2)^2</f>
+        <v>355.59183673469391</v>
+      </c>
+      <c r="C11" s="1">
+        <f>1+$K$2^2+B11*($L$2+$M$2)</f>
+        <v>8.4136816326530628</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B11))+(B11*$L$2))</f>
+        <v>30.875267292591968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(A12*(22/7)/$J$2)^2</f>
+        <v>484</v>
+      </c>
+      <c r="C12" s="1">
+        <f>1+$K$2^2+B12*($L$2+$M$2)</f>
+        <v>9.6463999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B12))+(B12*$L$2))</f>
+        <v>30.037289256198346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(A13*(22/7)/$J$2)^2</f>
+        <v>632.16326530612241</v>
+      </c>
+      <c r="C13" s="1">
+        <f>1+$K$2^2+B13*($L$2+$M$2)</f>
+        <v>11.068767346938776</v>
+      </c>
+      <c r="D13" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B13))+(B13*$L$2))</f>
+        <v>30.011980709225838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(A14*(22/7)/$J$2)^2</f>
+        <v>800.08163265306121</v>
+      </c>
+      <c r="C14" s="1">
+        <f>1+$K$2^2+B14*($L$2+$M$2)</f>
+        <v>12.680783673469389</v>
+      </c>
+      <c r="D14" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B14))+(B14*$L$2))</f>
+        <v>30.525334216208673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <f>(A15*(22/7)/$J$2)^2</f>
+        <v>987.75510204081627</v>
+      </c>
+      <c r="C15" s="1">
+        <f>1+$K$2^2+B15*($L$2+$M$2)</f>
+        <v>14.482448979591837</v>
+      </c>
+      <c r="D15" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B15))+(B15*$L$2))</f>
+        <v>31.433032551863718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <f>(A16*(22/7)/$J$2)^2</f>
+        <v>1195.1836734693877</v>
+      </c>
+      <c r="C16" s="1">
+        <f>1+$K$2^2+B16*($L$2+$M$2)</f>
+        <v>16.473763265306125</v>
+      </c>
+      <c r="D16" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B16))+(B16*$L$2))</f>
+        <v>32.653198094810634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <f>(A17*(22/7)/$J$2)^2</f>
+        <v>1422.3673469387757</v>
+      </c>
+      <c r="C17" s="1">
+        <f>1+$K$2^2+B17*($L$2+$M$2)</f>
+        <v>18.654726530612248</v>
+      </c>
+      <c r="D17" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B17))+(B17*$L$2))</f>
+        <v>34.136571925188811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <f>(A18*(22/7)/$J$2)^2</f>
+        <v>1669.3061224489793</v>
+      </c>
+      <c r="C18" s="1">
+        <f>1+$K$2^2+B18*($L$2+$M$2)</f>
+        <v>21.025338775510203</v>
+      </c>
+      <c r="D18" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B18))+(B18*$L$2))</f>
+        <v>35.852077225471831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <f>(A19*(22/7)/$J$2)^2</f>
+        <v>1936</v>
+      </c>
+      <c r="C19" s="1">
+        <f>1+$K$2^2+B19*($L$2+$M$2)</f>
+        <v>23.585600000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B19))+(B19*$L$2))</f>
+        <v>37.779322314049587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <f>(A20*(22/7)/$J$2)^2</f>
+        <v>2222.4489795918362</v>
+      </c>
+      <c r="C20" s="1">
+        <f>1+$K$2^2+B20*($L$2+$M$2)</f>
+        <v>26.335510204081629</v>
+      </c>
+      <c r="D20" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B20))+(B20*$L$2))</f>
+        <v>39.904477052528996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <f>(A21*(22/7)/$J$2)^2</f>
+        <v>2528.6530612244896</v>
+      </c>
+      <c r="C21" s="1">
+        <f>1+$K$2^2+B21*($L$2+$M$2)</f>
+        <v>29.275069387755103</v>
+      </c>
+      <c r="D21" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B21))+(B21*$L$2))</f>
+        <v>42.217893136490133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <f>(A22*(22/7)/$J$2)^2</f>
+        <v>2854.6122448979595</v>
+      </c>
+      <c r="C22" s="1">
+        <f>1+$K$2^2+B22*($L$2+$M$2)</f>
+        <v>32.404277551020414</v>
+      </c>
+      <c r="D22" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B22))+(B22*$L$2))</f>
+        <v>44.712673646220765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <f>(A23*(22/7)/$J$2)^2</f>
+        <v>3200.3265306122448</v>
+      </c>
+      <c r="C23" s="1">
+        <f>1+$K$2^2+B23*($L$2+$M$2)</f>
+        <v>35.723134693877554</v>
+      </c>
+      <c r="D23" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B23))+(B23*$L$2))</f>
+        <v>47.383782533644009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(A24*(22/7)/$J$2)^2</f>
+        <v>3565.795918367347</v>
+      </c>
+      <c r="C24" s="1">
+        <f>1+$K$2^2+B24*($L$2+$M$2)</f>
+        <v>39.231640816326532</v>
+      </c>
+      <c r="D24" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B24))+(B24*$L$2))</f>
+        <v>50.2274730908549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <f>(A25*(22/7)/$J$2)^2</f>
+        <v>3951.0204081632651</v>
+      </c>
+      <c r="C25" s="1">
+        <f>1+$K$2^2+B25*($L$2+$M$2)</f>
+        <v>42.929795918367347</v>
+      </c>
+      <c r="D25" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B25))+(B25*$L$2))</f>
+        <v>53.240911199190421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <f>(A26*(22/7)/$J$2)^2</f>
+        <v>4356</v>
+      </c>
+      <c r="C26" s="1">
+        <f>1+$K$2^2+B26*($L$2+$M$2)</f>
+        <v>46.817600000000006</v>
+      </c>
+      <c r="D26" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B26))+(B26*$L$2))</f>
+        <v>56.421921028466485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <f>(A27*(22/7)/$J$2)^2</f>
+        <v>4780.7346938775509</v>
+      </c>
+      <c r="C27" s="1">
+        <f>1+$K$2^2+B27*($L$2+$M$2)</f>
+        <v>50.895053061224495</v>
+      </c>
+      <c r="D27" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B27))+(B27*$L$2))</f>
+        <v>59.768809727784287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <f>(A28*(22/7)/$J$2)^2</f>
+        <v>5225.2244897959172</v>
+      </c>
+      <c r="C28" s="1">
+        <f>1+$K$2^2+B28*($L$2+$M$2)</f>
+        <v>55.162155102040806</v>
+      </c>
+      <c r="D28" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B28))+(B28*$L$2))</f>
+        <v>63.280244261569081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <f>(A29*(22/7)/$J$2)^2</f>
+        <v>5689.4693877551026</v>
+      </c>
+      <c r="C29" s="1">
+        <f>1+$K$2^2+B29*($L$2+$M$2)</f>
+        <v>59.61890612244899</v>
+      </c>
+      <c r="D29" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B29))+(B29*$L$2))</f>
+        <v>66.955163389460466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <f>(A30*(22/7)/$J$2)^2</f>
+        <v>6173.4693877551017</v>
+      </c>
+      <c r="C30" s="1">
+        <f>1+$K$2^2+B30*($L$2+$M$2)</f>
+        <v>64.265306122448976</v>
+      </c>
+      <c r="D30" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B30))+(B30*$L$2))</f>
+        <v>70.792713779726768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <f>(A31*(22/7)/$J$2)^2</f>
+        <v>6677.2244897959172</v>
+      </c>
+      <c r="C31" s="1">
+        <f>1+$K$2^2+B31*($L$2+$M$2)</f>
+        <v>69.101355102040813</v>
+      </c>
+      <c r="D31" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B31))+(B31*$L$2))</f>
+        <v>74.792202979837342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <f>(A32*(22/7)/$J$2)^2</f>
+        <v>7200.7346938775518</v>
+      </c>
+      <c r="C32" s="1">
+        <f>1+$K$2^2+B32*($L$2+$M$2)</f>
+        <v>74.127053061224501</v>
+      </c>
+      <c r="D32" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B32))+(B32*$L$2))</f>
+        <v>78.953064346018664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(A33*(22/7)/$J$2)^2</f>
+        <v>7744</v>
+      </c>
+      <c r="C33" s="1">
+        <f>1+$K$2^2+B33*($L$2+$M$2)</f>
+        <v>79.342400000000012</v>
+      </c>
+      <c r="D33" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B33))+(B33*$L$2))</f>
+        <v>83.274830578512393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <f>(A34*(22/7)/$J$2)^2</f>
+        <v>8307.0204081632637</v>
+      </c>
+      <c r="C34" s="1">
+        <f>1+$K$2^2+B34*($L$2+$M$2)</f>
+        <v>84.747395918367346</v>
+      </c>
+      <c r="D34" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B34))+(B34*$L$2))</f>
+        <v>87.757113531125043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <f>(A35*(22/7)/$J$2)^2</f>
+        <v>8889.7959183673447</v>
+      </c>
+      <c r="C35" s="1">
+        <f>1+$K$2^2+B35*($L$2+$M$2)</f>
+        <v>90.342040816326517</v>
+      </c>
+      <c r="D35" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B35))+(B35*$L$2))</f>
+        <v>92.399588650887324</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(A5*(22/7)/$J$2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f>1+$K$2^2+B5*($L$2+$M$2)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="e">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B5))+(B5*$L$2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>(A6*(22/7)/$J$2)^2</f>
+        <v>9.8775510204081627</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1+$K$2^2+B6*($L$2+$M$2)</f>
+        <v>5.0948244897959185</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B6))+(B6*$L$2))</f>
+        <v>52.435638792376452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(A7*(22/7)/$J$2)^2</f>
+        <v>39.510204081632651</v>
+      </c>
+      <c r="C7" s="1">
+        <f>1+$K$2^2+B7*($L$2+$M$2)</f>
+        <v>5.3792979591836732</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B7))+(B7*$L$2))</f>
+        <v>14.518175004216564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f>(A8*(22/7)/$J$2)^2</f>
+        <v>88.897959183673478</v>
+      </c>
+      <c r="C8" s="1">
+        <f>1+$K$2^2+B8*($L$2+$M$2)</f>
+        <v>5.8534204081632657</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B8))+(B8*$L$2))</f>
+        <v>7.5666628136654106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f>(A9*(22/7)/$J$2)^2</f>
+        <v>158.0408163265306</v>
+      </c>
+      <c r="C9" s="1">
+        <f>1+$K$2^2+B9*($L$2+$M$2)</f>
+        <v>6.5171918367346944</v>
+      </c>
+      <c r="D9" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B9))+(B9*$L$2))</f>
+        <v>5.2166049755439365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(A10*(22/7)/$J$2)^2</f>
+        <v>246.93877551020407</v>
+      </c>
+      <c r="C10" s="1">
+        <f>1+$K$2^2+B10*($L$2+$M$2)</f>
+        <v>7.3706122448979592</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B10))+(B10*$L$2))</f>
+        <v>4.2198954292460789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(A11*(22/7)/$J$2)^2</f>
+        <v>355.59183673469391</v>
+      </c>
+      <c r="C11" s="1">
+        <f>1+$K$2^2+B11*($L$2+$M$2)</f>
+        <v>8.4136816326530628</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B11))+(B11*$L$2))</f>
+        <v>3.7750534585183937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(A12*(22/7)/$J$2)^2</f>
+        <v>484</v>
+      </c>
+      <c r="C12" s="1">
+        <f>1+$K$2^2+B12*($L$2+$M$2)</f>
+        <v>9.6463999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B12))+(B12*$L$2))</f>
+        <v>3.6074578512396696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(A13*(22/7)/$J$2)^2</f>
+        <v>632.16326530612241</v>
+      </c>
+      <c r="C13" s="1">
+        <f>1+$K$2^2+B13*($L$2+$M$2)</f>
+        <v>11.068767346938776</v>
+      </c>
+      <c r="D13" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B13))+(B13*$L$2))</f>
+        <v>3.6023961418451678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(A14*(22/7)/$J$2)^2</f>
+        <v>800.08163265306121</v>
+      </c>
+      <c r="C14" s="1">
+        <f>1+$K$2^2+B14*($L$2+$M$2)</f>
+        <v>12.680783673469389</v>
+      </c>
+      <c r="D14" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B14))+(B14*$L$2))</f>
+        <v>3.7050668432417346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <f>(A15*(22/7)/$J$2)^2</f>
+        <v>987.75510204081627</v>
+      </c>
+      <c r="C15" s="1">
+        <f>1+$K$2^2+B15*($L$2+$M$2)</f>
+        <v>14.482448979591837</v>
+      </c>
+      <c r="D15" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B15))+(B15*$L$2))</f>
+        <v>3.8866065103727445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <f>(A16*(22/7)/$J$2)^2</f>
+        <v>1195.1836734693877</v>
+      </c>
+      <c r="C16" s="1">
+        <f>1+$K$2^2+B16*($L$2+$M$2)</f>
+        <v>16.473763265306125</v>
+      </c>
+      <c r="D16" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B16))+(B16*$L$2))</f>
+        <v>4.1306396189621264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <f>(A17*(22/7)/$J$2)^2</f>
+        <v>1422.3673469387757</v>
+      </c>
+      <c r="C17" s="1">
+        <f>1+$K$2^2+B17*($L$2+$M$2)</f>
+        <v>18.654726530612248</v>
+      </c>
+      <c r="D17" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B17))+(B17*$L$2))</f>
+        <v>4.4273143850377625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <f>(A18*(22/7)/$J$2)^2</f>
+        <v>1669.3061224489793</v>
+      </c>
+      <c r="C18" s="1">
+        <f>1+$K$2^2+B18*($L$2+$M$2)</f>
+        <v>21.025338775510203</v>
+      </c>
+      <c r="D18" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B18))+(B18*$L$2))</f>
+        <v>4.7704154450943665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <f>(A19*(22/7)/$J$2)^2</f>
+        <v>1936</v>
+      </c>
+      <c r="C19" s="1">
+        <f>1+$K$2^2+B19*($L$2+$M$2)</f>
+        <v>23.585600000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B19))+(B19*$L$2))</f>
+        <v>5.1558644628099177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <f>(A20*(22/7)/$J$2)^2</f>
+        <v>2222.4489795918362</v>
+      </c>
+      <c r="C20" s="1">
+        <f>1+$K$2^2+B20*($L$2+$M$2)</f>
+        <v>26.335510204081629</v>
+      </c>
+      <c r="D20" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B20))+(B20*$L$2))</f>
+        <v>5.5808954105058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <f>(A21*(22/7)/$J$2)^2</f>
+        <v>2528.6530612244896</v>
+      </c>
+      <c r="C21" s="1">
+        <f>1+$K$2^2+B21*($L$2+$M$2)</f>
+        <v>29.275069387755103</v>
+      </c>
+      <c r="D21" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B21))+(B21*$L$2))</f>
+        <v>6.0435786272980261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <f>(A22*(22/7)/$J$2)^2</f>
+        <v>2854.6122448979595</v>
+      </c>
+      <c r="C22" s="1">
+        <f>1+$K$2^2+B22*($L$2+$M$2)</f>
+        <v>32.404277551020414</v>
+      </c>
+      <c r="D22" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B22))+(B22*$L$2))</f>
+        <v>6.5425347292441529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <f>(A23*(22/7)/$J$2)^2</f>
+        <v>3200.3265306122448</v>
+      </c>
+      <c r="C23" s="1">
+        <f>1+$K$2^2+B23*($L$2+$M$2)</f>
+        <v>35.723134693877554</v>
+      </c>
+      <c r="D23" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B23))+(B23*$L$2))</f>
+        <v>7.0767565067288007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(A24*(22/7)/$J$2)^2</f>
+        <v>3565.795918367347</v>
+      </c>
+      <c r="C24" s="1">
+        <f>1+$K$2^2+B24*($L$2+$M$2)</f>
+        <v>39.231640816326532</v>
+      </c>
+      <c r="D24" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B24))+(B24*$L$2))</f>
+        <v>7.6454946181709795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <f>(A25*(22/7)/$J$2)^2</f>
+        <v>3951.0204081632651</v>
+      </c>
+      <c r="C25" s="1">
+        <f>1+$K$2^2+B25*($L$2+$M$2)</f>
+        <v>42.929795918367347</v>
+      </c>
+      <c r="D25" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B25))+(B25*$L$2))</f>
+        <v>8.2481822398380835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <f>(A26*(22/7)/$J$2)^2</f>
+        <v>4356</v>
+      </c>
+      <c r="C26" s="1">
+        <f>1+$K$2^2+B26*($L$2+$M$2)</f>
+        <v>46.817600000000006</v>
+      </c>
+      <c r="D26" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B26))+(B26*$L$2))</f>
+        <v>8.8843842056932978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <f>(A27*(22/7)/$J$2)^2</f>
+        <v>4780.7346938775509</v>
+      </c>
+      <c r="C27" s="1">
+        <f>1+$K$2^2+B27*($L$2+$M$2)</f>
+        <v>50.895053061224495</v>
+      </c>
+      <c r="D27" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B27))+(B27*$L$2))</f>
+        <v>9.5537619455568592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <f>(A28*(22/7)/$J$2)^2</f>
+        <v>5225.2244897959172</v>
+      </c>
+      <c r="C28" s="1">
+        <f>1+$K$2^2+B28*($L$2+$M$2)</f>
+        <v>55.162155102040806</v>
+      </c>
+      <c r="D28" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B28))+(B28*$L$2))</f>
+        <v>10.256048852313816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <f>(A29*(22/7)/$J$2)^2</f>
+        <v>5689.4693877551026</v>
+      </c>
+      <c r="C29" s="1">
+        <f>1+$K$2^2+B29*($L$2+$M$2)</f>
+        <v>59.61890612244899</v>
+      </c>
+      <c r="D29" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B29))+(B29*$L$2))</f>
+        <v>10.991032677892095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <f>(A30*(22/7)/$J$2)^2</f>
+        <v>6173.4693877551017</v>
+      </c>
+      <c r="C30" s="1">
+        <f>1+$K$2^2+B30*($L$2+$M$2)</f>
+        <v>64.265306122448976</v>
+      </c>
+      <c r="D30" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B30))+(B30*$L$2))</f>
+        <v>11.758542755945353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <f>(A31*(22/7)/$J$2)^2</f>
+        <v>6677.2244897959172</v>
+      </c>
+      <c r="C31" s="1">
+        <f>1+$K$2^2+B31*($L$2+$M$2)</f>
+        <v>69.101355102040813</v>
+      </c>
+      <c r="D31" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B31))+(B31*$L$2))</f>
+        <v>12.558440595967468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <f>(A32*(22/7)/$J$2)^2</f>
+        <v>7200.7346938775518</v>
+      </c>
+      <c r="C32" s="1">
+        <f>1+$K$2^2+B32*($L$2+$M$2)</f>
+        <v>74.127053061224501</v>
+      </c>
+      <c r="D32" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B32))+(B32*$L$2))</f>
+        <v>13.390612869203732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(A33*(22/7)/$J$2)^2</f>
+        <v>7744</v>
+      </c>
+      <c r="C33" s="1">
+        <f>1+$K$2^2+B33*($L$2+$M$2)</f>
+        <v>79.342400000000012</v>
+      </c>
+      <c r="D33" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B33))+(B33*$L$2))</f>
+        <v>14.25496611570248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <f>(A34*(22/7)/$J$2)^2</f>
+        <v>8307.0204081632637</v>
+      </c>
+      <c r="C34" s="1">
+        <f>1+$K$2^2+B34*($L$2+$M$2)</f>
+        <v>84.747395918367346</v>
+      </c>
+      <c r="D34" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B34))+(B34*$L$2))</f>
+        <v>15.151422706225008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <f>(A35*(22/7)/$J$2)^2</f>
+        <v>8889.7959183673447</v>
+      </c>
+      <c r="C35" s="1">
+        <f>1+$K$2^2+B35*($L$2+$M$2)</f>
+        <v>90.342040816326517</v>
+      </c>
+      <c r="D35" s="1">
+        <f>(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B35))+(B35*$L$2))</f>
+        <v>16.079917730177467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" ref="B36:B42" si="0">(A36*(22/7)/$J$2)^2</f>
+        <v>9492.3265306122448</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:C41" si="1">1+$K$2^2+B36*($L$2+$M$2)</f>
+        <v>96.126334693877553</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:D41" si="2">(1+($L$2/$M$2*$K$2^2)+($K$2^2/($M$2*B36))+(B36*$L$2))</f>
+        <v>17.040396574589106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>10114.612244897959</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>102.10027755102041</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>18.032813024171443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>10756.653061224488</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>108.26386938775509</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>19.057127758115971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>11418.448979591838</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>114.61711020408165</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>20.113307151698795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>12100</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>121.16000000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>21.201322314049587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>12801.306122448979</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>127.89253877551022</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>22.321148310355667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
